--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F099F7-2071-D243-9C37-A2B996D2AC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F4FD4-168D-A54E-BE16-BBA1F1569772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1160" windowWidth="25920" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="980" windowWidth="25920" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -950,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FEC86-CCF3-8540-B6B5-B82D58CC2B46}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F4FD4-168D-A54E-BE16-BBA1F1569772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF89432-67A7-7944-B493-377F90BDC490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="980" windowWidth="25920" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="980" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="1st Mock" sheetId="2" r:id="rId2"/>
+    <sheet name="Classes" sheetId="3" r:id="rId2"/>
+    <sheet name="1st Mock" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>School</t>
   </si>
@@ -230,6 +231,20 @@
   </si>
   <si>
     <t>Sryacuse</t>
+  </si>
+  <si>
+    <t>12月4号周六上课内容：
+o Study Guide
+o Angular Fundamentals</t>
+  </si>
+  <si>
+    <t>12月5号周日上课内容：
+o Displaying Data and Handling Events
+o Angular CLI</t>
+  </si>
+  <si>
+    <t>12月11号周日上课内容：
+o TypeScript Fundamentals</t>
   </si>
 </sst>
 </file>
@@ -321,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,6 +377,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -947,6 +971,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4699B51C-5A24-4B4C-B407-B7F20C9B1402}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>44534</v>
+      </c>
+      <c r="B2" s="17">
+        <v>44535</v>
+      </c>
+      <c r="C2" s="17">
+        <v>44541</v>
+      </c>
+      <c r="D2" s="17">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FEC86-CCF3-8540-B6B5-B82D58CC2B46}">
   <dimension ref="A1:K82"/>
   <sheetViews>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF89432-67A7-7944-B493-377F90BDC490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19CEEAD-0B7F-C14E-B0A9-0EB261A3361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="980" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>School</t>
   </si>
@@ -245,6 +245,30 @@
   <si>
     <t>12月11号周日上课内容：
 o TypeScript Fundamentals</t>
+  </si>
+  <si>
+    <t>12月11号周日上课内容：
+o TypeScript Fundamentals
+o Building Re-usable Components</t>
+  </si>
+  <si>
+    <t>12月18号周日上课内容：
+o Directives
+o Template-driven Forms</t>
+  </si>
+  <si>
+    <t>12月19号周日上课内容：
+o Reactive Forms
+o RxJS Fundamental</t>
+  </si>
+  <si>
+    <t>12月25号周日上课内容：
+o RxJS Fundamental
+o Consuming HTTP Services</t>
+  </si>
+  <si>
+    <t>12月25号周日上课内容：
+o Routing and Navigation</t>
   </si>
 </sst>
 </file>
@@ -972,10 +996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4699B51C-5A24-4B4C-B407-B7F20C9B1402}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,9 +1007,13 @@
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -999,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>44534</v>
       </c>
@@ -1012,8 +1040,20 @@
       <c r="D2" s="17">
         <v>44542</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="17">
+        <v>44548</v>
+      </c>
+      <c r="F2" s="17">
+        <v>44549</v>
+      </c>
+      <c r="G2" s="17">
+        <v>44555</v>
+      </c>
+      <c r="H2" s="17">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>67</v>
       </c>
@@ -1022,6 +1062,21 @@
       </c>
       <c r="C3" s="18" t="s">
         <v>69</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19CEEAD-0B7F-C14E-B0A9-0EB261A3361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF65E84-CC73-A84B-BBF1-24BFCF095785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="980" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,11 +252,6 @@
 o Building Re-usable Components</t>
   </si>
   <si>
-    <t>12月18号周日上课内容：
-o Directives
-o Template-driven Forms</t>
-  </si>
-  <si>
     <t>12月19号周日上课内容：
 o Reactive Forms
 o RxJS Fundamental</t>
@@ -269,6 +264,11 @@
   <si>
     <t>12月25号周日上课内容：
 o Routing and Navigation</t>
+  </si>
+  <si>
+    <t>12月18号周六上课内容：
+o Directives
+o Template-driven Forms</t>
   </si>
 </sst>
 </file>
@@ -999,7 +999,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,16 +1067,16 @@
         <v>70</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF65E84-CC73-A84B-BBF1-24BFCF095785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5016BA11-154C-044D-A8EF-180F7DC2DBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="980" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,11 +252,6 @@
 o Building Re-usable Components</t>
   </si>
   <si>
-    <t>12月19号周日上课内容：
-o Reactive Forms
-o RxJS Fundamental</t>
-  </si>
-  <si>
     <t>12月25号周日上课内容：
 o RxJS Fundamental
 o Consuming HTTP Services</t>
@@ -269,6 +264,11 @@
     <t>12月18号周六上课内容：
 o Directives
 o Template-driven Forms</t>
+  </si>
+  <si>
+    <t>12月19号周日上课内容：
+o Template-driven Forms
+o Reactive Forms</t>
   </si>
 </sst>
 </file>
@@ -996,10 +996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4699B51C-5A24-4B4C-B407-B7F20C9B1402}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,17 +1067,53 @@
         <v>70</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>44562</v>
+      </c>
+      <c r="B6" s="17">
+        <v>44563</v>
+      </c>
+      <c r="C6" s="17">
+        <v>44569</v>
+      </c>
+      <c r="D6" s="17">
+        <v>44570</v>
+      </c>
+      <c r="E6" s="17">
+        <v>44576</v>
+      </c>
+      <c r="F6" s="17">
+        <v>44577</v>
+      </c>
+      <c r="G6" s="17">
+        <v>44583</v>
+      </c>
+      <c r="H6" s="17">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="B7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>73</v>
-      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5016BA11-154C-044D-A8EF-180F7DC2DBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97096613-4C88-4D47-A650-00913658312E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="980" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,15 +252,6 @@
 o Building Re-usable Components</t>
   </si>
   <si>
-    <t>12月25号周日上课内容：
-o RxJS Fundamental
-o Consuming HTTP Services</t>
-  </si>
-  <si>
-    <t>12月25号周日上课内容：
-o Routing and Navigation</t>
-  </si>
-  <si>
     <t>12月18号周六上课内容：
 o Directives
 o Template-driven Forms</t>
@@ -269,6 +260,16 @@
     <t>12月19号周日上课内容：
 o Template-driven Forms
 o Reactive Forms</t>
+  </si>
+  <si>
+    <t>1月1号周六上课内容：
+o RxJS Fundamental
+o Consuming HTTP Services</t>
+  </si>
+  <si>
+    <t>1月2号周日上课内容：
+o Consuming HTTP Services
+o Routing and Navigation</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1000,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,10 +1068,10 @@
         <v>70</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -1103,10 +1104,10 @@
     </row>
     <row r="7" spans="1:8" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97096613-4C88-4D47-A650-00913658312E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51000BA-AEAC-3047-BE8B-318012527656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="980" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
   <si>
     <t>School</t>
   </si>
@@ -263,11 +263,19 @@
   </si>
   <si>
     <t>1月1号周六上课内容：
+o RxJS Fundamental</t>
+  </si>
+  <si>
+    <t>1月2号周日上课内容：
+o RxJS Fundamental</t>
+  </si>
+  <si>
+    <t>1月8号周六上课内容：
 o RxJS Fundamental
 o Consuming HTTP Services</t>
   </si>
   <si>
-    <t>1月2号周日上课内容：
+    <t>1月9号周日上课内容：
 o Consuming HTTP Services
 o Routing and Navigation</t>
   </si>
@@ -997,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4699B51C-5A24-4B4C-B407-B7F20C9B1402}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,10 +1019,10 @@
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="8" max="10" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -1028,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>44534</v>
       </c>
@@ -1053,8 +1061,10 @@
       <c r="H2" s="17">
         <v>44556</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>67</v>
       </c>
@@ -1075,8 +1085,10 @@
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>44562</v>
       </c>
@@ -1101,20 +1113,32 @@
       <c r="H6" s="17">
         <v>44584</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="17">
+        <v>44590</v>
+      </c>
+      <c r="J6" s="17">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51000BA-AEAC-3047-BE8B-318012527656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6802000F-06CD-B242-A951-0FF9B8C93162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="980" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t>School</t>
   </si>
@@ -276,7 +276,10 @@
   </si>
   <si>
     <t>1月9号周日上课内容：
-o Consuming HTTP Services
+o Consuming HTTP Services</t>
+  </si>
+  <si>
+    <t>1月15号周日上课内容：
 o Routing and Navigation</t>
   </si>
 </sst>
@@ -1008,7 +1011,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1133,7 +1136,9 @@
       <c r="D7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6802000F-06CD-B242-A951-0FF9B8C93162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A29701-CD84-024B-8053-EEC7A37B40DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="980" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="620" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>School</t>
   </si>
@@ -279,8 +279,17 @@
 o Consuming HTTP Services</t>
   </si>
   <si>
-    <t>1月15号周日上课内容：
+    <t>1月15号周六上课内容：
 o Routing and Navigation</t>
+  </si>
+  <si>
+    <t>1月22号周六上课内容：
+o Authentication and Authorization</t>
+  </si>
+  <si>
+    <t>1月23号周日上课内容：
+o Project: Getting Stated and Authentication
+o Deep Div: Angular HTTP Communication</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1020,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,8 +1149,12 @@
         <v>77</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
     </row>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A29701-CD84-024B-8053-EEC7A37B40DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E528F0B4-C095-8240-8A68-E3BEC379A3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="620" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5540" yWindow="1380" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>School</t>
   </si>
@@ -290,6 +290,22 @@
     <t>1月23号周日上课内容：
 o Project: Getting Stated and Authentication
 o Deep Div: Angular HTTP Communication</t>
+  </si>
+  <si>
+    <t>1月29号周六上课内容：
+o Deep Div: Angular HTTP Communication</t>
+  </si>
+  <si>
+    <t>1月30号周日上课内容：
+o Deep Div: Angular Routing</t>
+  </si>
+  <si>
+    <t>2月5号周六上课内容：
+o Deep Div: Angular Component Communication</t>
+  </si>
+  <si>
+    <t>2月6号周日上课内容：
+o Deep Div: Styling Applications with Angular Material</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4699B51C-5A24-4B4C-B407-B7F20C9B1402}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,8 +1171,48 @@
       <c r="H7" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>44597</v>
+      </c>
+      <c r="B10" s="17">
+        <v>44598</v>
+      </c>
+      <c r="C10" s="17">
+        <v>44604</v>
+      </c>
+      <c r="D10" s="17">
+        <v>44605</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E528F0B4-C095-8240-8A68-E3BEC379A3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48D37CD-F3A5-A045-9CDA-76A8270F0753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5540" yWindow="1380" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,11 +301,11 @@
   </si>
   <si>
     <t>2月5号周六上课内容：
-o Deep Div: Angular Component Communication</t>
+o Deep Div: Angular Routing</t>
   </si>
   <si>
     <t>2月6号周日上课内容：
-o Deep Div: Styling Applications with Angular Material</t>
+o Deep Div: Angular Component Communicatio</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48D37CD-F3A5-A045-9CDA-76A8270F0753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE62BED4-200C-224F-8D44-D4322C3605FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="1380" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="1400" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
   <si>
     <t>School</t>
   </si>
@@ -59,9 +59,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>JingYun Wang</t>
-  </si>
-  <si>
     <t>GC</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Rongjie Zhang</t>
   </si>
   <si>
-    <t>Yan Zhang</t>
-  </si>
-  <si>
     <t>LA</t>
   </si>
   <si>
@@ -99,12 +93,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>21/100</t>
-  </si>
-  <si>
-    <t>72/100</t>
   </si>
   <si>
     <t>TingChing Chou</t>
@@ -306,6 +294,24 @@
   <si>
     <t>2月6号周日上课内容：
 o Deep Div: Angular Component Communicatio</t>
+  </si>
+  <si>
+    <t>RXJS</t>
+  </si>
+  <si>
+    <t>我不行。。。。我还没学会</t>
+  </si>
+  <si>
+    <t>我最近有些事情，有些课跟进的不够好，我需要review一下，大概需要2个星期时间</t>
+  </si>
+  <si>
+    <t>Covid</t>
+  </si>
+  <si>
+    <t>7/100</t>
+  </si>
+  <si>
+    <t>80/100</t>
   </si>
 </sst>
 </file>
@@ -315,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -352,8 +358,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +397,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -397,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,6 +478,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,9 +785,10 @@
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -764,21 +808,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3">
         <v>2011</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
@@ -787,27 +831,30 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3">
         <v>2018</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>7</v>
@@ -816,25 +863,28 @@
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3">
         <v>2022</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -843,27 +893,30 @@
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="16">
         <v>44531</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>8</v>
@@ -872,27 +925,27 @@
         <v>3</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D6" s="16">
         <v>44256</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
@@ -901,27 +954,27 @@
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3">
         <v>2019</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>7</v>
@@ -930,27 +983,27 @@
         <v>2</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3">
         <v>2019</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>7</v>
@@ -959,27 +1012,27 @@
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3">
         <v>2017</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>7</v>
@@ -988,42 +1041,42 @@
         <v>3</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="21" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="21">
         <v>2017</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="E10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="21">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
@@ -1035,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4699B51C-5A24-4B4C-B407-B7F20C9B1402}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1094,22 +1147,22 @@
     </row>
     <row r="3" spans="1:10" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -1150,32 +1203,32 @@
     </row>
     <row r="7" spans="1:10" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1200,10 +1253,10 @@
     </row>
     <row r="11" spans="1:10" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -1223,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FEC86-CCF3-8540-B6B5-B82D58CC2B46}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1234,53 +1287,57 @@
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
-        <v>3</v>
+      <c r="B3" s="22">
+        <v>2</v>
       </c>
       <c r="C3" s="11">
         <v>2</v>
@@ -1288,107 +1345,105 @@
       <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="22">
+        <v>4</v>
+      </c>
+      <c r="F3" s="22">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="22">
         <v>3</v>
       </c>
-      <c r="F3" s="11">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>4</v>
       </c>
       <c r="D4" s="11">
         <v>5</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="22">
+        <v>5</v>
+      </c>
+      <c r="F4" s="22">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="22">
         <v>4</v>
       </c>
-      <c r="F4" s="10">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="10">
-        <v>13</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="C5" s="22">
         <v>5</v>
       </c>
       <c r="D5" s="11">
         <v>6</v>
       </c>
-      <c r="E5" s="11">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11">
-        <v>5</v>
-      </c>
+      <c r="E5" s="22">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="10">
+        <v>13</v>
+      </c>
+      <c r="C6" s="22">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22">
+        <v>7</v>
+      </c>
+      <c r="E6" s="22">
+        <v>7</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="22">
+        <v>14</v>
+      </c>
+      <c r="C7" s="22">
+        <v>8</v>
+      </c>
+      <c r="D7" s="22">
+        <v>8</v>
+      </c>
+      <c r="E7" s="22">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="22">
         <v>15</v>
       </c>
-      <c r="C6" s="10">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11">
-        <v>7</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10">
-        <v>8</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C8" s="22">
         <v>9</v>
       </c>
-      <c r="E7" s="11">
-        <v>7</v>
-      </c>
-      <c r="F7" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="11">
+      <c r="D8" s="22">
         <v>9</v>
       </c>
-      <c r="D8" s="11">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="E8" s="22">
         <v>9</v>
       </c>
-      <c r="F8" s="11">
-        <v>8</v>
-      </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="13"/>
-      <c r="C9" s="11">
+      <c r="B9" s="10">
+        <v>17</v>
+      </c>
+      <c r="C9" s="22">
         <v>15</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="22">
         <v>12</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="22">
         <v>10</v>
       </c>
       <c r="F9" s="12"/>
@@ -1396,25 +1451,23 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="11">
+      <c r="D10" s="22">
         <v>13</v>
       </c>
-      <c r="E10" s="11">
-        <v>14</v>
-      </c>
-      <c r="F10" s="11">
-        <v>40</v>
-      </c>
+      <c r="E10" s="22">
+        <v>11</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="11">
+      <c r="D11" s="22">
         <v>15</v>
       </c>
-      <c r="E11" s="11">
-        <v>16</v>
+      <c r="E11" s="22">
+        <v>12</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="3"/>
@@ -1422,11 +1475,11 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="11">
+      <c r="D12" s="22">
         <v>17</v>
       </c>
-      <c r="E12" s="11">
-        <v>17</v>
+      <c r="E12" s="22">
+        <v>16</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="3"/>
@@ -1434,19 +1487,25 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="11">
+      <c r="D13" s="22">
         <v>18</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="22">
+        <v>51</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="11">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="22">
         <v>20</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="22">
+        <v>52</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1456,35 +1515,35 @@
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="10">
+      <c r="B17" s="11">
         <v>1</v>
       </c>
       <c r="C17" s="10">
@@ -1494,14 +1553,14 @@
         <v>1</v>
       </c>
       <c r="E17" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3"/>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1518,15 +1577,15 @@
         <v>4</v>
       </c>
       <c r="F18" s="10">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="11">
         <v>4</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="10">
-        <v>4</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>4</v>
       </c>
       <c r="D19" s="10">
@@ -1535,8 +1594,8 @@
       <c r="E19" s="10">
         <v>5</v>
       </c>
-      <c r="F19" s="10">
-        <v>5</v>
+      <c r="F19" s="11">
+        <v>3</v>
       </c>
       <c r="G19" s="3"/>
     </row>
@@ -1544,15 +1603,17 @@
       <c r="B20" s="10">
         <v>13</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>5</v>
       </c>
       <c r="D20" s="10">
         <v>7</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="10">
+        <v>7</v>
+      </c>
       <c r="F20" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G20" s="3"/>
     </row>
@@ -1563,20 +1624,18 @@
       <c r="C21" s="11">
         <v>7</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>9</v>
       </c>
       <c r="E21" s="10">
-        <v>7</v>
-      </c>
-      <c r="F21" s="10">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
-        <v>23</v>
+      <c r="B22" s="10">
+        <v>17</v>
       </c>
       <c r="C22" s="10">
         <v>8</v>
@@ -1587,9 +1646,7 @@
       <c r="E22" s="11">
         <v>10</v>
       </c>
-      <c r="F22" s="10">
-        <v>8</v>
-      </c>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
@@ -1600,11 +1657,9 @@
         <v>13</v>
       </c>
       <c r="E23" s="10">
-        <v>14</v>
-      </c>
-      <c r="F23" s="11">
-        <v>40</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
@@ -1615,18 +1670,18 @@
         <v>15</v>
       </c>
       <c r="E24" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>17</v>
       </c>
       <c r="E25" s="10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="3"/>
@@ -1637,50 +1692,60 @@
       <c r="D26" s="10">
         <v>18</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="10">
+        <v>22</v>
+      </c>
       <c r="F26" s="12"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
+      <c r="D27" s="23">
+        <v>20</v>
+      </c>
+      <c r="E27" s="10">
+        <v>49</v>
+      </c>
       <c r="F27" s="12"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="10">
+        <v>51</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1701,7 +1766,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1865,28 +1930,28 @@
         <v>5</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="K42" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1907,7 +1972,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="K43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2047,33 +2112,33 @@
     </row>
     <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2094,7 +2159,7 @@
       </c>
       <c r="G56" s="3"/>
       <c r="K56" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2263,33 +2328,33 @@
     </row>
     <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -2310,7 +2375,7 @@
       </c>
       <c r="G71" s="3"/>
       <c r="K71" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE62BED4-200C-224F-8D44-D4322C3605FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D9D19-A2ED-A54C-9AD5-BCBD4AF0FF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="1400" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,12 +95,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>TingChing Chou</t>
-  </si>
-  <si>
-    <t>94/100</t>
-  </si>
-  <si>
     <t>86/100</t>
   </si>
   <si>
@@ -312,6 +306,12 @@
   </si>
   <si>
     <t>80/100</t>
+  </si>
+  <si>
+    <t>/100</t>
+  </si>
+  <si>
+    <t>RxJS</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,16 +810,16 @@
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D2" s="3">
         <v>2011</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -834,24 +834,24 @@
         <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D3" s="3">
         <v>2018</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
@@ -866,25 +866,25 @@
         <v>9</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3">
         <v>2022</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -893,30 +893,30 @@
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="16">
         <v>44531</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>8</v>
@@ -930,22 +930,22 @@
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="16">
         <v>44256</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
@@ -954,27 +954,27 @@
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3">
         <v>2019</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>7</v>
@@ -983,27 +983,27 @@
         <v>2</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3">
         <v>2019</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>7</v>
@@ -1012,27 +1012,27 @@
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3">
         <v>2017</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>7</v>
@@ -1041,24 +1041,24 @@
         <v>3</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="21" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>62</v>
-      </c>
       <c r="C10" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="21">
         <v>2017</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>10</v>
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
@@ -1147,22 +1147,22 @@
     </row>
     <row r="3" spans="1:10" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -1203,32 +1203,32 @@
     </row>
     <row r="7" spans="1:10" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="J7" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1253,10 +1253,10 @@
     </row>
     <row r="11" spans="1:10" s="19" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -1274,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FEC86-CCF3-8540-B6B5-B82D58CC2B46}">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1287,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>13</v>
@@ -1302,7 +1302,7 @@
         <v>17</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>18</v>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>13</v>
@@ -1530,7 +1530,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
     </row>
     <row r="29" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>13</v>
@@ -1733,10 +1733,10 @@
         <v>15</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>18</v>
@@ -1758,19 +1758,19 @@
       <c r="D30" s="10">
         <v>1</v>
       </c>
-      <c r="E30" s="10">
-        <v>3</v>
-      </c>
-      <c r="F30" s="10">
+      <c r="E30" s="11">
         <v>2</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1</v>
       </c>
       <c r="G30" s="3"/>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="10">
+      <c r="B31" s="11">
         <v>3</v>
       </c>
       <c r="C31" s="10">
@@ -1782,8 +1782,8 @@
       <c r="E31" s="10">
         <v>4</v>
       </c>
-      <c r="F31" s="10">
-        <v>4</v>
+      <c r="F31" s="11">
+        <v>2</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -1800,13 +1800,13 @@
       <c r="E32" s="10">
         <v>5</v>
       </c>
-      <c r="F32" s="10">
-        <v>5</v>
+      <c r="F32" s="11">
+        <v>3</v>
       </c>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="10">
+      <c r="B33" s="11">
         <v>13</v>
       </c>
       <c r="C33" s="10">
@@ -1815,11 +1815,11 @@
       <c r="D33" s="10">
         <v>7</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="11">
         <v>6</v>
       </c>
-      <c r="F33" s="10">
-        <v>6</v>
+      <c r="F33" s="11">
+        <v>4</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -1833,44 +1833,35 @@
       <c r="D34" s="10">
         <v>9</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="11">
         <v>7</v>
       </c>
-      <c r="F34" s="10">
-        <v>7</v>
-      </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="11">
-        <v>23</v>
+      <c r="B35" s="10">
+        <v>17</v>
       </c>
       <c r="C35" s="10">
         <v>8</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="11">
         <v>12</v>
       </c>
-      <c r="E35" s="10">
-        <v>10</v>
-      </c>
-      <c r="F35" s="10">
+      <c r="E35" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
-      <c r="C36" s="10">
+      <c r="C36" s="11">
         <v>9</v>
       </c>
       <c r="D36" s="10">
         <v>13</v>
       </c>
-      <c r="E36" s="10">
-        <v>14</v>
-      </c>
-      <c r="F36" s="10">
-        <v>9</v>
+      <c r="E36" s="11">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1878,27 +1869,23 @@
       <c r="C37" s="11">
         <v>15</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="11">
         <v>15</v>
       </c>
-      <c r="E37" s="10">
-        <v>16</v>
-      </c>
-      <c r="F37" s="11">
-        <v>10</v>
+      <c r="E37" s="11">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="11">
+        <v>19</v>
+      </c>
       <c r="D38" s="10">
         <v>17</v>
       </c>
-      <c r="E38" s="10">
-        <v>18</v>
-      </c>
-      <c r="F38" s="10">
-        <v>40</v>
+      <c r="E38" s="11">
+        <v>12</v>
       </c>
       <c r="G38" s="3"/>
     </row>
@@ -1908,634 +1895,654 @@
       <c r="D39" s="10">
         <v>18</v>
       </c>
-      <c r="E39" s="13"/>
+      <c r="E39" s="11">
+        <v>22</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
+      <c r="D40" s="11">
+        <v>20</v>
+      </c>
+      <c r="E40" s="11">
+        <v>30</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
-      <c r="E41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="11">
+        <v>49</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="E42" s="11">
+        <v>51</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K43" s="9" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="14">
-        <v>1</v>
-      </c>
-      <c r="C43" s="14">
-        <v>1</v>
-      </c>
-      <c r="D43" s="14">
-        <v>1</v>
-      </c>
-      <c r="E43" s="14">
-        <v>3</v>
-      </c>
-      <c r="F43" s="14">
-        <v>2</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="K43" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B44" s="14">
+        <v>1</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1</v>
+      </c>
+      <c r="E44" s="14">
         <v>3</v>
       </c>
-      <c r="C44" s="14">
+      <c r="F44" s="14">
         <v>2</v>
       </c>
-      <c r="D44" s="14">
-        <v>5</v>
-      </c>
-      <c r="E44" s="15">
-        <v>4</v>
-      </c>
-      <c r="F44" s="14">
-        <v>4</v>
-      </c>
       <c r="G44" s="3"/>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B45" s="14">
+        <v>3</v>
+      </c>
+      <c r="C45" s="14">
+        <v>2</v>
+      </c>
+      <c r="D45" s="14">
+        <v>5</v>
+      </c>
+      <c r="E45" s="15">
         <v>4</v>
       </c>
-      <c r="C45" s="14">
+      <c r="F45" s="14">
         <v>4</v>
-      </c>
-      <c r="D45" s="14">
-        <v>6</v>
-      </c>
-      <c r="E45" s="14">
-        <v>5</v>
-      </c>
-      <c r="F45" s="14">
-        <v>5</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B46" s="14">
+        <v>4</v>
+      </c>
+      <c r="C46" s="14">
+        <v>4</v>
+      </c>
+      <c r="D46" s="14">
+        <v>6</v>
+      </c>
+      <c r="E46" s="14">
+        <v>5</v>
+      </c>
+      <c r="F46" s="14">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="14">
         <v>13</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C47" s="14">
         <v>5</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <v>7</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>6</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="15">
         <v>6</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B47">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B48">
         <v>15</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C48" s="14">
         <v>7</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <v>9</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E48" s="14">
         <v>7</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F48" s="14">
         <v>7</v>
       </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="15">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="15">
         <v>23</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C49" s="14">
         <v>8</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="14">
         <v>12</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E49" s="14">
         <v>10</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F49" s="14">
         <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C49" s="15">
-        <v>9</v>
-      </c>
-      <c r="D49" s="14">
-        <v>13</v>
-      </c>
-      <c r="E49" s="14">
-        <v>14</v>
-      </c>
-      <c r="F49" s="14">
-        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C50" s="15">
+        <v>9</v>
+      </c>
+      <c r="D50" s="14">
+        <v>13</v>
+      </c>
+      <c r="E50" s="14">
+        <v>14</v>
+      </c>
+      <c r="F50" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C51" s="15">
         <v>15</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <v>15</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="15">
         <v>16</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F51" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D51" s="14">
-        <v>17</v>
-      </c>
-      <c r="E51">
-        <v>17</v>
-      </c>
-      <c r="F51" s="14">
-        <v>40</v>
-      </c>
-      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D52" s="14">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>17</v>
+      </c>
+      <c r="F52" s="14">
+        <v>40</v>
+      </c>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D53" s="14">
         <v>18</v>
       </c>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="G53" s="3"/>
+    </row>
+    <row r="56" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="9" t="s">
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="9" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="15">
-        <v>1</v>
-      </c>
-      <c r="C56" s="15">
-        <v>1</v>
-      </c>
-      <c r="D56" s="14">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="K56" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57" s="15">
-        <v>3</v>
-      </c>
-      <c r="C57" s="14">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" s="14">
-        <v>3</v>
-      </c>
-      <c r="F57" s="14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C57" s="15">
+        <v>1</v>
+      </c>
+      <c r="D57" s="14">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
       </c>
       <c r="G57" s="3"/>
+      <c r="K57" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B58" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="14">
-        <v>4</v>
-      </c>
-      <c r="D58" s="14">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
       </c>
       <c r="E58" s="14">
-        <v>4</v>
-      </c>
-      <c r="F58" s="15">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F58" s="14">
+        <v>2</v>
       </c>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B59" s="15">
+        <v>4</v>
+      </c>
+      <c r="C59" s="14">
+        <v>4</v>
+      </c>
+      <c r="D59" s="14">
+        <v>5</v>
+      </c>
+      <c r="E59" s="14">
+        <v>4</v>
+      </c>
+      <c r="F59" s="15">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="15">
         <v>13</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C60" s="14">
         <v>5</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="15">
         <v>6</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E60" s="14">
         <v>5</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F60" s="14">
         <v>5</v>
       </c>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60">
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B61">
         <v>15</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C61" s="15">
         <v>7</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="15">
         <v>7</v>
       </c>
-      <c r="E60">
+      <c r="E61">
         <v>6</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F61" s="14">
         <v>6</v>
       </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="14">
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="14">
         <v>17</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C62" s="14">
         <v>8</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <v>9</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E62" s="15">
         <v>7</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F62" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="15">
         <v>23</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C63" s="14">
         <v>9</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>10</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>9</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F63" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C63" s="15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C64" s="15">
         <v>15</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D64" s="15">
         <v>12</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="15">
         <v>10</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="15">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D64" s="14">
-        <v>13</v>
-      </c>
-      <c r="E64" s="15">
-        <v>14</v>
-      </c>
-      <c r="F64" s="15">
-        <v>10</v>
-      </c>
-      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D65" s="14">
+        <v>13</v>
+      </c>
+      <c r="E65" s="15">
+        <v>14</v>
+      </c>
+      <c r="F65" s="15">
+        <v>10</v>
+      </c>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D66" s="14">
         <v>15</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E66" s="15">
         <v>16</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F66" s="15">
         <v>40</v>
-      </c>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D66" s="15">
-        <v>17</v>
-      </c>
-      <c r="E66" s="15">
-        <v>17</v>
       </c>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D67" s="15">
+        <v>17</v>
+      </c>
+      <c r="E67" s="15">
+        <v>17</v>
+      </c>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D68" s="15">
         <v>18</v>
       </c>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="7" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="71" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="9" t="s">
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="9" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="14">
-        <v>1</v>
-      </c>
-      <c r="C71" s="14">
-        <v>1</v>
-      </c>
-      <c r="D71" s="14">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3"/>
-      <c r="K71" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B72" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" s="14">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" s="14">
-        <v>3</v>
-      </c>
-      <c r="F72" s="14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D72" s="14">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
       </c>
       <c r="G72" s="3"/>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B73" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="14">
-        <v>4</v>
-      </c>
-      <c r="D73" s="14">
-        <v>5</v>
-      </c>
-      <c r="E73" s="15">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" s="14">
+        <v>3</v>
       </c>
       <c r="F73" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B74" s="14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C74" s="14">
+        <v>4</v>
+      </c>
+      <c r="D74" s="14">
         <v>5</v>
       </c>
-      <c r="D74" s="14">
-        <v>6</v>
-      </c>
-      <c r="E74" s="14">
-        <v>5</v>
+      <c r="E74" s="15">
+        <v>4</v>
       </c>
       <c r="F74" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B75" s="14">
+        <v>13</v>
+      </c>
+      <c r="C75" s="14">
+        <v>5</v>
+      </c>
+      <c r="D75" s="14">
+        <v>6</v>
+      </c>
+      <c r="E75" s="14">
+        <v>5</v>
+      </c>
+      <c r="F75" s="14">
+        <v>5</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="14">
         <v>15</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C76" s="15">
         <v>7</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D76" s="15">
         <v>7</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>6</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="15">
         <v>6</v>
       </c>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B76">
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B77">
         <v>17</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C77" s="14">
         <v>8</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <v>9</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E77" s="15">
         <v>7</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F77" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="15">
         <v>23</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C78" s="14">
         <v>9</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>10</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <v>9</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F78" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C78" s="14">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C79" s="14">
         <v>15</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <v>12</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E79" s="14">
         <v>10</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F79" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D79" s="14">
-        <v>13</v>
-      </c>
-      <c r="E79" s="14">
-        <v>14</v>
-      </c>
-      <c r="F79" s="14">
-        <v>10</v>
-      </c>
-      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D80" s="14">
+        <v>13</v>
+      </c>
+      <c r="E80" s="14">
+        <v>14</v>
+      </c>
+      <c r="F80" s="14">
+        <v>10</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D81" s="14">
         <v>15</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E81" s="14">
         <v>16</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="15">
         <v>40</v>
-      </c>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D81" s="15">
-        <v>17</v>
-      </c>
-      <c r="E81" s="14">
-        <v>17</v>
       </c>
       <c r="G81" s="3"/>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D82" s="15">
+        <v>17</v>
+      </c>
+      <c r="E82" s="14">
+        <v>17</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D83" s="15">
         <v>18</v>
       </c>
-      <c r="G82" s="3"/>
+      <c r="G83" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D9D19-A2ED-A54C-9AD5-BCBD4AF0FF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAA5EB9-A845-3F48-85BD-DEE1937F9C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="1400" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="1400" windowWidth="25920" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -308,10 +308,10 @@
     <t>80/100</t>
   </si>
   <si>
-    <t>/100</t>
-  </si>
-  <si>
     <t>RxJS</t>
+  </si>
+  <si>
+    <t>44/100</t>
   </si>
 </sst>
 </file>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -956,6 +956,7 @@
       <c r="I6" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -985,6 +986,7 @@
       <c r="I7" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1014,6 +1016,7 @@
       <c r="I8" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1276,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FEC86-CCF3-8540-B6B5-B82D58CC2B46}">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1736,7 +1739,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>18</v>
@@ -1766,7 +1769,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="K30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAA5EB9-A845-3F48-85BD-DEE1937F9C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CAE2B0-8EE2-A243-A955-2AD27C39F7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="1400" windowWidth="25920" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34920" yWindow="1160" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -773,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1277,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FEC86-CCF3-8540-B6B5-B82D58CC2B46}">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1545,7 +1545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" s="11">
         <v>1</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" s="10">
         <v>13</v>
       </c>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" s="10">
         <v>15</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" s="10">
         <v>17</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="11">
         <v>9</v>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11">
         <v>15</v>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="10">
@@ -1689,7 +1689,7 @@
       <c r="F25" s="12"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="10">
@@ -1701,7 +1701,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="23">
@@ -1713,7 +1713,7 @@
       <c r="F27" s="12"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="E28" s="10">
@@ -1722,7 +1722,7 @@
       <c r="F28" s="12"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
         <v>1</v>
       </c>
@@ -1771,8 +1771,9 @@
       <c r="K30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31" s="11">
         <v>3</v>
       </c>
@@ -1789,8 +1790,9 @@
         <v>2</v>
       </c>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B32" s="10">
         <v>4</v>
       </c>
@@ -1807,8 +1809,9 @@
         <v>3</v>
       </c>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B33" s="11">
         <v>13</v>
       </c>
@@ -1825,8 +1828,9 @@
         <v>4</v>
       </c>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B34" s="10">
         <v>15</v>
       </c>
@@ -1840,8 +1844,9 @@
         <v>7</v>
       </c>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B35" s="10">
         <v>17</v>
       </c>
@@ -1854,8 +1859,9 @@
       <c r="E35" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
       <c r="C36" s="11">
         <v>9</v>
@@ -1866,8 +1872,9 @@
       <c r="E36" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11">
         <v>15</v>
@@ -1878,8 +1885,9 @@
       <c r="E37" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11">
         <v>19</v>
@@ -1891,8 +1899,9 @@
         <v>12</v>
       </c>
       <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10">
@@ -1903,8 +1912,9 @@
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="11">
@@ -1915,8 +1925,9 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -1926,7 +1937,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="E42" s="11">
@@ -1935,7 +1946,7 @@
       <c r="F42" s="12"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>5</v>
       </c>
@@ -1964,7 +1975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B44" s="14">
         <v>1</v>
       </c>
@@ -1985,7 +1996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B45" s="14">
         <v>3</v>
       </c>
@@ -2003,7 +2014,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B46" s="14">
         <v>4</v>
       </c>
@@ -2021,7 +2032,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B47" s="14">
         <v>13</v>
       </c>
@@ -2039,7 +2050,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>15</v>
       </c>

--- a/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2021/1221_1st_round_mockinterview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/12_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CAE2B0-8EE2-A243-A955-2AD27C39F7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDC58BE-5079-F44B-BED6-25EE0A1F712E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34920" yWindow="1160" windowWidth="25920" windowHeight="18900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34920" yWindow="1160" windowWidth="25920" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -771,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,7 +788,7 @@
     <col min="10" max="10" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -836,8 +836,9 @@
       <c r="J2" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -868,8 +869,9 @@
       <c r="J3" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -899,7 +901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -927,8 +929,9 @@
       <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -957,8 +960,9 @@
         <v>41</v>
       </c>
       <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -988,7 +992,7 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1018,7 +1022,7 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1046,8 +1050,9 @@
       <c r="I9" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="21" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" s="21" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>58</v>
       </c>
@@ -1076,10 +1081,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
@@ -1279,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FEC86-CCF3-8540-B6B5-B82D58CC2B46}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
